--- a/Python_script/v2/hask-gcb-com2.xlsx
+++ b/Python_script/v2/hask-gcb-com2.xlsx
@@ -12,9 +12,10 @@
     <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="hask-gcb-com2" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId1"/>
+    <sheet name="hask-gcb-com2" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -2844,8 +2845,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1222589424"/>
-        <c:axId val="1721638576"/>
+        <c:axId val="-120194384"/>
+        <c:axId val="-120192752"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -5561,11 +5562,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1721288384"/>
-        <c:axId val="1721656112"/>
+        <c:axId val="-120187600"/>
+        <c:axId val="-120189920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1222589424"/>
+        <c:axId val="-120194384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5621,12 +5622,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1721638576"/>
+        <c:crossAx val="-120192752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1721638576"/>
+        <c:axId val="-120192752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5682,12 +5683,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1222589424"/>
+        <c:crossAx val="-120194384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1721656112"/>
+        <c:axId val="-120189920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5729,12 +5730,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1721288384"/>
+        <c:crossAx val="-120187600"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1721288384"/>
+        <c:axId val="-120187600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5743,7 +5744,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1721656112"/>
+        <c:crossAx val="-120189920"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -5815,11 +5817,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -6379,25 +6376,29 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8676640" cy="6289040"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6410,7 +6411,7 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6679,7 +6680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:G443"/>
     </sheetView>
   </sheetViews>
@@ -36393,6 +36394,5 @@
     <sortCondition ref="D1:D1100"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>